--- a/irace/results/scaled/analysis-bullheimer.xlsx
+++ b/irace/results/scaled/analysis-bullheimer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Obtained</t>
   </si>
@@ -39,19 +39,19 @@
     <t>Bullheimer</t>
   </si>
   <si>
-    <t>Developed</t>
+    <t>Bullnheimer</t>
   </si>
   <si>
-    <t>B (uns)</t>
+    <t>Replication</t>
   </si>
   <si>
-    <t>D (uns)</t>
+    <t>Tuned</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Sorted deviations</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Unsorted deviations</t>
   </si>
 </sst>
 </file>
@@ -131,7 +131,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SQD</c:v>
+            <c:v>Tuned</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -281,11 +281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178695552"/>
-        <c:axId val="178852992"/>
+        <c:axId val="186568064"/>
+        <c:axId val="186786944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178695552"/>
+        <c:axId val="186568064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,12 +296,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178852992"/>
+        <c:crossAx val="186786944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178852992"/>
+        <c:axId val="186786944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178695552"/>
+        <c:crossAx val="186568064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -362,7 +362,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$I$28:$I$41</c:f>
+              <c:f>Лист1!$K$28:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -468,11 +468,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Obtained</c:v>
+            <c:v>Replication</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$J$28:$J$41</c:f>
+              <c:f>Лист1!$L$28:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -517,6 +517,116 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>66.300733163493504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$28:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tuned</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$M$28:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-8.9318945715509308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6573910799535529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7516687068388022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.33653205624472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.925872128210719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.342845161167347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.214515738079569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.798059158709464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.788802521760935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.476109131729231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.178744173775414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.477602694645554</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.59279730546681</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.343533749970078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,11 +692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43156608"/>
-        <c:axId val="43154816"/>
+        <c:axId val="186808960"/>
+        <c:axId val="186818944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43156608"/>
+        <c:axId val="186808960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,12 +707,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43154816"/>
+        <c:crossAx val="186818944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43154816"/>
+        <c:axId val="186818944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43156608"/>
+        <c:crossAx val="186808960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -669,16 +779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -987,16 +1097,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1352,7 +1463,7 @@
         <v>27.505282615392968</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1611.56</v>
       </c>
@@ -1374,7 +1485,7 @@
         <v>27.758350343036664</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>707.76</v>
       </c>
@@ -1396,7 +1507,7 @@
         <v>28.838924621720434</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>995.13</v>
       </c>
@@ -1418,7 +1529,7 @@
         <v>30.001943387623626</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1365.6</v>
       </c>
@@ -1440,7 +1551,7 @@
         <v>31.467453472537454</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1817.59</v>
       </c>
@@ -1462,13 +1573,21 @@
         <v>33.363200873687617</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>AVERAGE(C2:C21)</f>
         <v>24.118837061888229</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1595,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1485,19 +1607,25 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>9</v>
       </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>524.61</v>
       </c>
@@ -1506,6 +1634,9 @@
       </c>
       <c r="C28">
         <v>719.17499999999995</v>
+      </c>
+      <c r="D28">
+        <v>604.89099999999996</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1523,13 +1654,20 @@
         <v>37.08755075198718</v>
       </c>
       <c r="I28">
+        <f>(D28-A28)/A28*100</f>
+        <v>15.302986980804778</v>
+      </c>
+      <c r="K28">
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>9.2591198723023158</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>-8.9318945715509308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>835.26</v>
       </c>
@@ -1538,6 +1676,9 @@
       </c>
       <c r="C29">
         <v>1264.2929999999999</v>
+      </c>
+      <c r="D29">
+        <v>1111.2550000000001</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1555,13 +1696,20 @@
         <v>51.365203649163128</v>
       </c>
       <c r="I29">
+        <f t="shared" ref="I29:I41" si="5">(D29-A29)/A29*100</f>
+        <v>33.043004573426252</v>
+      </c>
+      <c r="K29">
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>32.326972122064909</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>1.6573910799535529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>826.14</v>
       </c>
@@ -1570,6 +1718,9 @@
       </c>
       <c r="C30">
         <v>1230.8989999999999</v>
+      </c>
+      <c r="D30">
+        <v>1141.2529999999999</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1587,13 +1738,20 @@
         <v>48.993996174982435</v>
       </c>
       <c r="I30">
+        <f t="shared" si="5"/>
+        <v>38.142808724913444</v>
+      </c>
+      <c r="K30">
         <v>8.0796888165569611E-2</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>34.223214446464908</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>5.7516687068388022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1028.42</v>
       </c>
@@ -1602,6 +1760,9 @@
       </c>
       <c r="C31">
         <v>1710.27</v>
+      </c>
+      <c r="D31">
+        <v>1371.2180000000001</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -1619,13 +1780,20 @@
         <v>66.300733163493504</v>
       </c>
       <c r="I31">
+        <f t="shared" si="5"/>
+        <v>33.332490616674121</v>
+      </c>
+      <c r="K31">
         <v>9.2385153705794226E-2</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>34.816038062683305</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>6.33653205624472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1291.45</v>
       </c>
@@ -1634,6 +1802,9 @@
       </c>
       <c r="C32">
         <v>2037.4</v>
+      </c>
+      <c r="D32">
+        <v>1890.0740000000001</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -1651,13 +1822,20 @@
         <v>57.760656626272798</v>
       </c>
       <c r="I32">
+        <f t="shared" si="5"/>
+        <v>46.352859189283365</v>
+      </c>
+      <c r="K32">
         <v>0.71783484302173139</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>35.481260893151891</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>10.925872128210719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>555.42999999999995</v>
       </c>
@@ -1666,6 +1844,9 @@
       </c>
       <c r="C33">
         <v>745.51599999999996</v>
+      </c>
+      <c r="D33">
+        <v>704.45600000000002</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -1683,13 +1864,20 @@
         <v>34.223214446464908</v>
       </c>
       <c r="I33">
+        <f t="shared" si="5"/>
+        <v>26.830743748087084</v>
+      </c>
+      <c r="K33">
         <v>0.74805723000944924</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>37.08755075198718</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>14.342845161167347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>909.68</v>
       </c>
@@ -1698,6 +1886,9 @@
       </c>
       <c r="C34">
         <v>1203.752</v>
+      </c>
+      <c r="D34">
+        <v>1243.751</v>
       </c>
       <c r="E34">
         <v>7</v>
@@ -1715,13 +1906,20 @@
         <v>32.326972122064909</v>
       </c>
       <c r="I34">
+        <f t="shared" si="5"/>
+        <v>36.724012839679894</v>
+      </c>
+      <c r="K34">
         <v>0.86599571503160788</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>43.099468007223408</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>15.214515738079569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>865.94</v>
       </c>
@@ -1730,6 +1928,9 @@
       </c>
       <c r="C35">
         <v>1167.4259999999999</v>
+      </c>
+      <c r="D35">
+        <v>1228.1469999999999</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -1747,13 +1948,20 @@
         <v>34.816038062683305</v>
       </c>
       <c r="I35">
+        <f t="shared" si="5"/>
+        <v>41.82818671039562</v>
+      </c>
+      <c r="K35">
         <v>1.0834949596532761</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>46.084211431766377</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>18.798059158709464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1162.55</v>
       </c>
@@ -1762,6 +1970,9 @@
       </c>
       <c r="C36">
         <v>1698.3019999999999</v>
+      </c>
+      <c r="D36">
+        <v>1465.15</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -1779,13 +1990,20 @@
         <v>46.084211431766377</v>
       </c>
       <c r="I36">
+        <f t="shared" si="5"/>
+        <v>26.028988000516119</v>
+      </c>
+      <c r="K36">
         <v>1.2185784549099998</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>48.993996174982435</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>19.788802521760935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1395.85</v>
       </c>
@@ -1794,6 +2012,9 @@
       </c>
       <c r="C37">
         <v>2202.8470000000002</v>
+      </c>
+      <c r="D37">
+        <v>1990.9290000000001</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1811,13 +2032,20 @@
         <v>57.814020131102936</v>
       </c>
       <c r="I37">
+        <f t="shared" si="5"/>
+        <v>42.63201633413334</v>
+      </c>
+      <c r="K37">
         <v>2.2166565909549028</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>51.365203649163128</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>20.476109131729231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1042.1099999999999</v>
       </c>
@@ -1826,6 +2054,9 @@
       </c>
       <c r="C38">
         <v>1683.836</v>
+      </c>
+      <c r="D38">
+        <v>1411.9949999999999</v>
       </c>
       <c r="E38">
         <v>11</v>
@@ -1843,13 +2074,20 @@
         <v>61.579487770005102</v>
       </c>
       <c r="I38">
+        <f t="shared" si="5"/>
+        <v>35.493853815815989</v>
+      </c>
+      <c r="K38">
         <v>2.8764354221323862</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>57.760656626272798</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>25.178744173775414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>819.56</v>
       </c>
@@ -1858,6 +2096,9 @@
       </c>
       <c r="C39">
         <v>1172.7860000000001</v>
+      </c>
+      <c r="D39">
+        <v>1176.0989999999999</v>
       </c>
       <c r="E39">
         <v>12</v>
@@ -1875,13 +2116,20 @@
         <v>43.099468007223408</v>
       </c>
       <c r="I39">
+        <f t="shared" si="5"/>
+        <v>43.503709307433255</v>
+      </c>
+      <c r="K39">
         <v>3.2214464907333462</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>57.814020131102936</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>30.477602694645554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1541.14</v>
       </c>
@@ -1890,6 +2138,9 @@
       </c>
       <c r="C40">
         <v>1683.836</v>
+      </c>
+      <c r="D40">
+        <v>1407.828</v>
       </c>
       <c r="E40">
         <v>13</v>
@@ -1907,13 +2158,20 @@
         <v>9.2591198723023158</v>
       </c>
       <c r="I40">
+        <f t="shared" si="5"/>
+        <v>-8.6502199670373958</v>
+      </c>
+      <c r="K40">
         <v>3.9975642081885718</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>61.579487770005102</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>34.59279730546681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>866.37</v>
       </c>
@@ -1922,6 +2180,9 @@
       </c>
       <c r="C41">
         <v>1173.769</v>
+      </c>
+      <c r="D41">
+        <v>1176.0989999999999</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -1939,15 +2200,36 @@
         <v>35.481260893151891</v>
       </c>
       <c r="I41">
+        <f t="shared" si="5"/>
+        <v>35.750199106617259</v>
+      </c>
+      <c r="K41">
         <v>4.0272561849084356</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>66.300733163493504</v>
       </c>
+      <c r="M41">
+        <v>36.343533749970078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f>AVERAGE(G28:G41)</f>
+        <v>1.510464438672505</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(H28:H41)</f>
+        <v>44.013709507333161</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(I28:I41)</f>
+        <v>31.879688570053084</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="J28:J41">
-    <sortCondition ref="J28:J41"/>
+  <sortState ref="M28:M41">
+    <sortCondition ref="M28:M41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
